--- a/revised/Quetta/Quetta.xlsx
+++ b/revised/Quetta/Quetta.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A80ED2-25F2-4513-BC3D-DE4B85189040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BD281-57DB-488F-85D0-29E73BA5B2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,6 +262,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -273,7 +284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -363,6 +374,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1013,15 +1027,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28029C6-2094-4F19-B9E2-17CE7D370274}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
+    <row r="1" spans="1:4" ht="45">
       <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
@@ -1031,8 +1045,11 @@
       <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31">
+      <c r="D1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31">
       <c r="A2" s="22" t="s">
         <v>25</v>
       </c>
@@ -1042,8 +1059,11 @@
       <c r="C2" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="46.5">
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.5">
       <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
@@ -1053,8 +1073,11 @@
       <c r="C3" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31">
+      <c r="D3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31">
       <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
@@ -1064,8 +1087,11 @@
       <c r="C4" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="31">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1073,6 +1099,9 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
     </row>

--- a/revised/Quetta/Quetta.xlsx
+++ b/revised/Quetta/Quetta.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BD281-57DB-488F-85D0-29E73BA5B2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE84AB3-08B5-443A-9BD3-BDD04DA84DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual distribution" sheetId="2" r:id="rId1"/>
@@ -71,12 +71,6 @@
     <t>Autam</t>
   </si>
   <si>
-    <t>Passenager</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>No Damge to PR</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>Passenager_train</t>
+  </si>
+  <si>
+    <t>Goods_Train</t>
   </si>
 </sst>
 </file>
@@ -370,13 +370,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -895,8 +895,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28029C6-2094-4F19-B9E2-17CE7D370274}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1037,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45">
       <c r="A1" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>7</v>
@@ -1045,13 +1045,13 @@
       <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31">
       <c r="A2" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="22">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="3" spans="1:4" ht="46.5">
       <c r="A3" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="22">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="4" spans="1:4" ht="31">
       <c r="A4" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="22">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="5" spans="1:4" ht="31">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC59E211-7C54-4EF4-90AF-28915C91AD3D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1183,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8"/>
     </row>
@@ -1303,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.5">
@@ -1437,16 +1437,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5">

--- a/revised/Quetta/Quetta.xlsx
+++ b/revised/Quetta/Quetta.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE84AB3-08B5-443A-9BD3-BDD04DA84DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CFAA62-3C85-41FB-B502-44962E27E0AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual distribution" sheetId="2" r:id="rId1"/>
@@ -80,12 +80,6 @@
     <t>Cost of Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">No Casulties </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casulties </t>
-  </si>
-  <si>
     <t>No of Deaths</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>Goods_Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Casualties </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casualties </t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1037,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45">
       <c r="A1" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>7</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="2" spans="1:4" ht="31">
       <c r="A2" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="22">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="3" spans="1:4" ht="46.5">
       <c r="A3" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="22">
         <v>21</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="4" spans="1:4" ht="31">
       <c r="A4" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="22">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="5" spans="1:4" ht="31">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1169,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC59E211-7C54-4EF4-90AF-28915C91AD3D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1183,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8"/>
     </row>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38325158-311B-4A4A-9E9D-397C6C9C874F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1437,16 +1437,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5">
